--- a/Documents/ZeitPlan.xlsx
+++ b/Documents/ZeitPlan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93937A0-944C-41D5-A542-D2F53FE5F889}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82DB2B2-5E92-40F4-99B1-A3EF14496F5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -961,165 +961,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1130,6 +971,165 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1412,29 +1412,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE16" sqref="AE16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="43" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="43" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W1" s="196"/>
-    </row>
-    <row r="2" spans="2:27" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="169" t="s">
+    <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W1" s="143"/>
+    </row>
+    <row r="2" spans="2:27" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
       <c r="H2" s="82"/>
       <c r="I2" s="82"/>
       <c r="J2" s="82"/>
@@ -1456,13 +1456,13 @@
       <c r="Z2" s="82"/>
       <c r="AA2" s="134"/>
     </row>
-    <row r="3" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="171"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
+    <row r="3" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="158"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
       <c r="H3" s="83"/>
       <c r="I3" s="83"/>
       <c r="J3" s="83"/>
@@ -1472,11 +1472,11 @@
       <c r="N3" s="83"/>
       <c r="O3" s="83"/>
       <c r="P3" s="91"/>
-      <c r="Q3" s="175" t="s">
+      <c r="Q3" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="176"/>
-      <c r="S3" s="177"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="164"/>
       <c r="T3" s="83"/>
       <c r="U3" s="83"/>
       <c r="V3" s="83"/>
@@ -1486,13 +1486,13 @@
       <c r="Z3" s="83"/>
       <c r="AA3" s="135"/>
     </row>
-    <row r="4" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="171"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
+    <row r="4" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="158"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
       <c r="H4" s="83"/>
       <c r="I4" s="83"/>
       <c r="J4" s="83"/>
@@ -1502,11 +1502,11 @@
       <c r="N4" s="83"/>
       <c r="O4" s="83"/>
       <c r="P4" s="90"/>
-      <c r="Q4" s="175" t="s">
+      <c r="Q4" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="176"/>
-      <c r="S4" s="177"/>
+      <c r="R4" s="163"/>
+      <c r="S4" s="164"/>
       <c r="T4" s="83"/>
       <c r="U4" s="83"/>
       <c r="V4" s="83"/>
@@ -1516,13 +1516,13 @@
       <c r="Z4" s="83"/>
       <c r="AA4" s="135"/>
     </row>
-    <row r="5" spans="2:27" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="173"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="174"/>
+    <row r="5" spans="2:27" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="160"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
       <c r="H5" s="84"/>
       <c r="I5" s="84"/>
       <c r="J5" s="84"/>
@@ -1544,97 +1544,97 @@
       <c r="Z5" s="84"/>
       <c r="AA5" s="136"/>
     </row>
-    <row r="6" spans="2:27" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="166">
+      <c r="D6" s="168">
         <v>1</v>
       </c>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="167">
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="169">
         <v>2</v>
       </c>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="166">
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="168">
         <v>3</v>
       </c>
-      <c r="M6" s="167"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="167">
+      <c r="M6" s="169"/>
+      <c r="N6" s="169"/>
+      <c r="O6" s="170"/>
+      <c r="P6" s="169">
         <v>4</v>
       </c>
-      <c r="Q6" s="167"/>
-      <c r="R6" s="167"/>
-      <c r="S6" s="167"/>
-      <c r="T6" s="163">
+      <c r="Q6" s="169"/>
+      <c r="R6" s="169"/>
+      <c r="S6" s="169"/>
+      <c r="T6" s="153">
         <v>5</v>
       </c>
-      <c r="U6" s="164"/>
-      <c r="V6" s="164"/>
-      <c r="W6" s="195"/>
-      <c r="X6" s="163">
+      <c r="U6" s="154"/>
+      <c r="V6" s="154"/>
+      <c r="W6" s="187"/>
+      <c r="X6" s="153">
         <v>6</v>
       </c>
-      <c r="Y6" s="164"/>
-      <c r="Z6" s="164"/>
-      <c r="AA6" s="165"/>
-    </row>
-    <row r="7" spans="2:27" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y6" s="154"/>
+      <c r="Z6" s="154"/>
+      <c r="AA6" s="155"/>
+    </row>
+    <row r="7" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="166" t="s">
+      <c r="D7" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="166" t="s">
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="166" t="s">
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="166" t="s">
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" s="167"/>
-      <c r="R7" s="167"/>
-      <c r="S7" s="168"/>
-      <c r="T7" s="163" t="s">
+      <c r="Q7" s="169"/>
+      <c r="R7" s="169"/>
+      <c r="S7" s="170"/>
+      <c r="T7" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="164"/>
-      <c r="V7" s="164"/>
-      <c r="W7" s="165"/>
-      <c r="X7" s="163" t="s">
+      <c r="U7" s="154"/>
+      <c r="V7" s="154"/>
+      <c r="W7" s="155"/>
+      <c r="X7" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="Y7" s="164"/>
-      <c r="Z7" s="164"/>
-      <c r="AA7" s="165"/>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B8" s="183" t="s">
+      <c r="Y7" s="154"/>
+      <c r="Z7" s="154"/>
+      <c r="AA7" s="155"/>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B8" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="161" t="s">
+      <c r="C8" s="180" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="123"/>
@@ -1662,9 +1662,9 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="184"/>
-      <c r="C9" s="162"/>
+    <row r="9" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="176"/>
+      <c r="C9" s="181"/>
       <c r="D9" s="130"/>
       <c r="E9" s="131"/>
       <c r="F9" s="10"/>
@@ -1690,15 +1690,15 @@
       <c r="Z9" s="7"/>
       <c r="AA9" s="8"/>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B10" s="184"/>
-      <c r="C10" s="161" t="s">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B10" s="176"/>
+      <c r="C10" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="197"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="199"/>
-      <c r="G10" s="200"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="147"/>
       <c r="H10" s="103"/>
       <c r="I10" s="101"/>
       <c r="J10" s="101"/>
@@ -1720,9 +1720,9 @@
       <c r="Z10" s="86"/>
       <c r="AA10" s="87"/>
     </row>
-    <row r="11" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="185"/>
-      <c r="C11" s="162"/>
+    <row r="11" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="177"/>
+      <c r="C11" s="181"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
       <c r="F11" s="131"/>
@@ -1748,11 +1748,11 @@
       <c r="Z11" s="7"/>
       <c r="AA11" s="8"/>
     </row>
-    <row r="12" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="188" t="s">
+    <row r="12" spans="2:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="186" t="s">
+      <c r="C12" s="178" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15"/>
@@ -1763,10 +1763,10 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="14"/>
-      <c r="L12" s="203"/>
-      <c r="M12" s="204"/>
-      <c r="N12" s="204"/>
-      <c r="O12" s="205"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="152"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
@@ -1780,9 +1780,9 @@
       <c r="Z12" s="11"/>
       <c r="AA12" s="12"/>
     </row>
-    <row r="13" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="189"/>
-      <c r="C13" s="187"/>
+    <row r="13" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="183"/>
+      <c r="C13" s="179"/>
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
@@ -1808,9 +1808,9 @@
       <c r="Z13" s="22"/>
       <c r="AA13" s="23"/>
     </row>
-    <row r="14" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="189"/>
-      <c r="C14" s="186" t="s">
+    <row r="14" spans="2:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="183"/>
+      <c r="C14" s="178" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="15"/>
@@ -1838,9 +1838,9 @@
       <c r="Z14" s="11"/>
       <c r="AA14" s="12"/>
     </row>
-    <row r="15" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="190"/>
-      <c r="C15" s="187"/>
+    <row r="15" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="184"/>
+      <c r="C15" s="179"/>
       <c r="D15" s="20"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -1849,7 +1849,7 @@
       <c r="I15" s="18"/>
       <c r="J15" s="16"/>
       <c r="K15" s="19"/>
-      <c r="L15" s="201"/>
+      <c r="L15" s="148"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="17"/>
@@ -1866,11 +1866,11 @@
       <c r="Z15" s="16"/>
       <c r="AA15" s="17"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B16" s="191" t="s">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B16" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="188" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="26"/>
@@ -1898,9 +1898,9 @@
       <c r="Z16" s="27"/>
       <c r="AA16" s="28"/>
     </row>
-    <row r="17" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="192"/>
-      <c r="C17" s="158"/>
+    <row r="17" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="186"/>
+      <c r="C17" s="189"/>
       <c r="D17" s="31"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
@@ -1926,11 +1926,11 @@
       <c r="Z17" s="32"/>
       <c r="AA17" s="33"/>
     </row>
-    <row r="18" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="178" t="s">
+    <row r="18" spans="2:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="159" t="s">
+      <c r="C18" s="190" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="36"/>
@@ -1958,9 +1958,9 @@
       <c r="Z18" s="37"/>
       <c r="AA18" s="40"/>
     </row>
-    <row r="19" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="179"/>
-      <c r="C19" s="160"/>
+    <row r="19" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="166"/>
+      <c r="C19" s="191"/>
       <c r="D19" s="41"/>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -1986,9 +1986,9 @@
       <c r="Z19" s="42"/>
       <c r="AA19" s="45"/>
     </row>
-    <row r="20" spans="2:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="179"/>
-      <c r="C20" s="181" t="s">
+    <row r="20" spans="2:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="166"/>
+      <c r="C20" s="173" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="46"/>
@@ -2016,9 +2016,9 @@
       <c r="Z20" s="47"/>
       <c r="AA20" s="48"/>
     </row>
-    <row r="21" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="179"/>
-      <c r="C21" s="182"/>
+    <row r="21" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="166"/>
+      <c r="C21" s="174"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
       <c r="F21" s="52"/>
@@ -2044,9 +2044,9 @@
       <c r="Z21" s="52"/>
       <c r="AA21" s="53"/>
     </row>
-    <row r="22" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="179"/>
-      <c r="C22" s="159" t="s">
+    <row r="22" spans="2:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="166"/>
+      <c r="C22" s="190" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="36"/>
@@ -2074,9 +2074,9 @@
       <c r="Z22" s="57"/>
       <c r="AA22" s="88"/>
     </row>
-    <row r="23" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="179"/>
-      <c r="C23" s="160"/>
+    <row r="23" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="166"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="41"/>
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
@@ -2102,9 +2102,9 @@
       <c r="Z23" s="42"/>
       <c r="AA23" s="45"/>
     </row>
-    <row r="24" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="179"/>
-      <c r="C24" s="159" t="s">
+    <row r="24" spans="2:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="166"/>
+      <c r="C24" s="190" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="46"/>
@@ -2132,9 +2132,9 @@
       <c r="Z24" s="47"/>
       <c r="AA24" s="48"/>
     </row>
-    <row r="25" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="179"/>
-      <c r="C25" s="160"/>
+    <row r="25" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="166"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="51"/>
       <c r="E25" s="52"/>
       <c r="F25" s="52"/>
@@ -2147,22 +2147,22 @@
       <c r="M25" s="113"/>
       <c r="N25" s="110"/>
       <c r="O25" s="48"/>
-      <c r="P25" s="202"/>
+      <c r="P25" s="149"/>
       <c r="Q25" s="113"/>
       <c r="R25" s="113"/>
       <c r="S25" s="140"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
+      <c r="T25" s="148"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="137"/>
       <c r="W25" s="53"/>
       <c r="X25" s="51"/>
       <c r="Y25" s="52"/>
       <c r="Z25" s="52"/>
       <c r="AA25" s="53"/>
     </row>
-    <row r="26" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="179"/>
-      <c r="C26" s="193" t="s">
+    <row r="26" spans="2:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="166"/>
+      <c r="C26" s="171" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="36"/>
@@ -2190,9 +2190,9 @@
       <c r="Z26" s="57"/>
       <c r="AA26" s="88"/>
     </row>
-    <row r="27" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="180"/>
-      <c r="C27" s="194"/>
+    <row r="27" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="167"/>
+      <c r="C27" s="172"/>
       <c r="D27" s="41"/>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
@@ -2212,17 +2212,17 @@
       <c r="T27" s="51"/>
       <c r="U27" s="52"/>
       <c r="V27" s="52"/>
-      <c r="W27" s="53"/>
+      <c r="W27" s="139"/>
       <c r="X27" s="51"/>
       <c r="Y27" s="52"/>
       <c r="Z27" s="52"/>
       <c r="AA27" s="53"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B28" s="147" t="s">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B28" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="150" t="s">
+      <c r="C28" s="199" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="58"/>
@@ -2250,9 +2250,9 @@
       <c r="Z28" s="59"/>
       <c r="AA28" s="60"/>
     </row>
-    <row r="29" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="148"/>
-      <c r="C29" s="151"/>
+    <row r="29" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="197"/>
+      <c r="C29" s="200"/>
       <c r="D29" s="64"/>
       <c r="E29" s="65"/>
       <c r="F29" s="65"/>
@@ -2271,16 +2271,16 @@
       <c r="S29" s="66"/>
       <c r="T29" s="64"/>
       <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
+      <c r="V29" s="137"/>
       <c r="W29" s="66"/>
       <c r="X29" s="64"/>
       <c r="Y29" s="65"/>
       <c r="Z29" s="65"/>
       <c r="AA29" s="66"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B30" s="148"/>
-      <c r="C30" s="150" t="s">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B30" s="197"/>
+      <c r="C30" s="199" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="58"/>
@@ -2308,9 +2308,9 @@
       <c r="Z30" s="59"/>
       <c r="AA30" s="60"/>
     </row>
-    <row r="31" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="149"/>
-      <c r="C31" s="151"/>
+    <row r="31" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="198"/>
+      <c r="C31" s="200"/>
       <c r="D31" s="67"/>
       <c r="E31" s="68"/>
       <c r="F31" s="68"/>
@@ -2334,13 +2334,13 @@
       <c r="X31" s="64"/>
       <c r="Y31" s="65"/>
       <c r="Z31" s="65"/>
-      <c r="AA31" s="66"/>
-    </row>
-    <row r="32" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="154" t="s">
+      <c r="AA31" s="139"/>
+    </row>
+    <row r="32" spans="2:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="152" t="s">
+      <c r="C32" s="201" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="119"/>
@@ -2368,9 +2368,9 @@
       <c r="Z32" s="124"/>
       <c r="AA32" s="118"/>
     </row>
-    <row r="33" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="155"/>
-      <c r="C33" s="153"/>
+    <row r="33" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="204"/>
+      <c r="C33" s="202"/>
       <c r="D33" s="122"/>
       <c r="E33" s="120"/>
       <c r="F33" s="120"/>
@@ -2391,14 +2391,14 @@
       <c r="U33" s="120"/>
       <c r="V33" s="120"/>
       <c r="W33" s="121"/>
-      <c r="X33" s="122"/>
-      <c r="Y33" s="120"/>
-      <c r="Z33" s="120"/>
+      <c r="X33" s="130"/>
+      <c r="Y33" s="131"/>
+      <c r="Z33" s="131"/>
       <c r="AA33" s="121"/>
     </row>
-    <row r="34" spans="2:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="155"/>
-      <c r="C34" s="152" t="s">
+    <row r="34" spans="2:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="204"/>
+      <c r="C34" s="201" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="119"/>
@@ -2426,9 +2426,9 @@
       <c r="Z34" s="117"/>
       <c r="AA34" s="118"/>
     </row>
-    <row r="35" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="156"/>
-      <c r="C35" s="153"/>
+    <row r="35" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="205"/>
+      <c r="C35" s="202"/>
       <c r="D35" s="122"/>
       <c r="E35" s="120"/>
       <c r="F35" s="120"/>
@@ -2454,9 +2454,9 @@
       <c r="Z35" s="120"/>
       <c r="AA35" s="121"/>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B36" s="143"/>
-      <c r="C36" s="145" t="s">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B36" s="192"/>
+      <c r="C36" s="194" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="72"/>
@@ -2484,9 +2484,9 @@
       <c r="Z36" s="73"/>
       <c r="AA36" s="128"/>
     </row>
-    <row r="37" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="144"/>
-      <c r="C37" s="146"/>
+    <row r="37" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="193"/>
+      <c r="C37" s="195"/>
       <c r="D37" s="77"/>
       <c r="E37" s="78"/>
       <c r="F37" s="78"/>
@@ -2514,11 +2514,19 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="B2:G5"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="B18:B27"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -2532,25 +2540,17 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="T6:W6"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:O7"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="B2:G5"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T6:W6"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="T7:W7"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
